--- a/public/attendance.xlsx
+++ b/public/attendance.xlsx
@@ -46,10 +46,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-410]\ #,##0.00;[RED]\-[$€-410]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -126,7 +127,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,6 +137,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,7 +169,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -193,32 +198,32 @@
       <c r="C2" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1"/>
     </row>
   </sheetData>

--- a/public/attendance.xlsx
+++ b/public/attendance.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Foglio2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Foglio3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Emp No.</t>
   </si>
@@ -35,12 +35,6 @@
   <si>
     <t xml:space="preserve">Date</t>
   </si>
-  <si>
-    <t xml:space="preserve">ABC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024/1/1</t>
-  </si>
 </sst>
 </file>
 
@@ -50,7 +44,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-410]\ #,##0.00;[RED]\-[$€-410]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -127,7 +121,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,10 +135,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,15 +156,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -188,50 +178,206 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;Kff0000 Confidential | مقيد&amp;1#_x005F_x000D_&amp;"Arialri,Regular"&amp;10&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;CPagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -248,13 +394,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;Kff0000 Confidential | مقيد&amp;1#_x005F_x000D_&amp;"Arialri,Regular"&amp;10&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;CPagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -271,13 +417,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;Kff0000 Confidential | مقيد&amp;1#_x005F_x000D_&amp;"Arialri,Regular"&amp;10&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;CPagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
